--- a/src/draft/performanceD365-tierperf/PerfTestBlog.xlsx
+++ b/src/draft/performanceD365-tierperf/PerfTestBlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\GitHub\denistrunin-blog\src\draft\performanceD365-tierperf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\denistrunin-blog\src\draft\performanceD365-tierperf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC5D6C4-579E-4842-BB2D-0C7075B9932C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6092C3-B11C-4174-8E4F-338D8C55DEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="3330" windowWidth="21195" windowHeight="11835" xr2:uid="{F2FD7870-3D7D-407D-B041-0069E412226C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2FD7870-3D7D-407D-B041-0069E412226C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -585,12 +585,12 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B10" sqref="B10:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>

--- a/src/draft/performanceD365-tierperf/PerfTestBlog.xlsx
+++ b/src/draft/performanceD365-tierperf/PerfTestBlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\denistrunin-blog\src\draft\performanceD365-tierperf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6092C3-B11C-4174-8E4F-338D8C55DEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D45EDA-35EA-4F90-82D9-378ECFF299D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2FD7870-3D7D-407D-B041-0069E412226C}"/>
   </bookViews>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="62">
   <si>
     <t xml:space="preserve">Insert </t>
   </si>
@@ -88,9 +86,6 @@
     <t xml:space="preserve">Delete From </t>
   </si>
   <si>
-    <t>PROD</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 950,  Selects </t>
   </si>
   <si>
@@ -206,6 +201,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Selected 1000 records in 486ms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selected 1000 records in 622ms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1239,  Selects </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1031,  Selects </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23898,  SGOC Lookups (25) times each entry </t>
+  </si>
+  <si>
+    <t>PROD-Client1</t>
+  </si>
+  <si>
+    <t>PROD - Client2</t>
   </si>
 </sst>
 </file>
@@ -237,7 +250,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -260,14 +273,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,39 +621,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAC97B4-B9A4-4EAD-ADBC-56478BBEEFB9}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -622,16 +664,19 @@
         <v>11560</v>
       </c>
       <c r="C2" s="2">
+        <v>8151</v>
+      </c>
+      <c r="D2" s="2">
         <v>7027</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>2801</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>2524</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -639,16 +684,19 @@
         <v>3524</v>
       </c>
       <c r="C3" s="2">
+        <v>3523</v>
+      </c>
+      <c r="D3" s="2">
         <v>2372</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>662</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>615</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -656,16 +704,19 @@
         <v>250</v>
       </c>
       <c r="C4" s="2">
+        <v>178</v>
+      </c>
+      <c r="D4" s="2">
         <v>143</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>124</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -673,16 +724,19 @@
         <v>33280</v>
       </c>
       <c r="C5" s="2">
+        <v>23222</v>
+      </c>
+      <c r="D5" s="2">
         <v>26421</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>5351</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>4984</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -690,16 +744,19 @@
         <v>41651</v>
       </c>
       <c r="C6" s="2">
+        <v>43170</v>
+      </c>
+      <c r="D6" s="2">
         <v>27645</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>5788</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>5462</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -707,16 +764,19 @@
         <v>1954</v>
       </c>
       <c r="C7" s="2">
+        <v>1239</v>
+      </c>
+      <c r="D7" s="2">
         <v>950</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>858</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>669</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -724,16 +784,19 @@
         <v>1680</v>
       </c>
       <c r="C8" s="2">
+        <v>1031</v>
+      </c>
+      <c r="D8" s="2">
         <v>895</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>979</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>815</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -741,16 +804,19 @@
         <v>36681</v>
       </c>
       <c r="C9" s="2">
+        <v>23898</v>
+      </c>
+      <c r="D9" s="2">
         <v>21220</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>5284</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>4916</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -758,16 +824,19 @@
         <v>48083</v>
       </c>
       <c r="C10" s="2">
+        <v>32206</v>
+      </c>
+      <c r="D10" s="2">
         <v>32246</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>8553</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>8081</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -775,16 +844,19 @@
         <v>12508</v>
       </c>
       <c r="C11" s="2">
+        <v>10139</v>
+      </c>
+      <c r="D11" s="2">
         <v>6630</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>2951</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>2482</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -792,16 +864,19 @@
         <v>378</v>
       </c>
       <c r="C12" s="2">
+        <v>625</v>
+      </c>
+      <c r="D12" s="2">
         <v>519</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>475</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>845</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -809,16 +884,19 @@
         <v>276</v>
       </c>
       <c r="C13" s="2">
+        <v>503</v>
+      </c>
+      <c r="D13" s="2">
         <v>204</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>242</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -826,12 +904,15 @@
         <v>291</v>
       </c>
       <c r="C14" s="2">
+        <v>460</v>
+      </c>
+      <c r="D14" s="2">
         <v>383</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>237</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>282</v>
       </c>
     </row>
@@ -843,10 +924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C9D677-A6B7-4EEF-B755-820190E9F0D3}">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130:B142"/>
+    <sheetView topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149:B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,25 +938,25 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -923,7 +1004,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>136</v>
@@ -934,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>169</v>
@@ -945,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>545</v>
@@ -993,20 +1074,20 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1124,25 +1205,25 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1190,7 +1271,7 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46">
         <v>109</v>
@@ -1201,7 +1282,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47">
         <v>104</v>
@@ -1212,7 +1293,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48">
         <v>354</v>
@@ -1260,20 +1341,20 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1321,7 +1402,7 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C63">
         <v>104</v>
@@ -1332,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C64">
         <v>104</v>
@@ -1343,7 +1424,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C65">
         <v>377</v>
@@ -1391,25 +1472,25 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" t="s">
         <v>23</v>
-      </c>
-      <c r="B75" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1457,7 +1538,7 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C82">
         <v>107</v>
@@ -1468,7 +1549,7 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C83">
         <v>109</v>
@@ -1479,7 +1560,7 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C84">
         <v>435</v>
@@ -1527,20 +1608,20 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1588,7 +1669,7 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C99">
         <v>109</v>
@@ -1599,7 +1680,7 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C100">
         <v>106</v>
@@ -1610,7 +1691,7 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C101">
         <v>430</v>
@@ -1658,25 +1739,25 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1724,7 +1805,7 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C118">
         <v>78</v>
@@ -1735,7 +1816,7 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C119">
         <v>99</v>
@@ -1746,7 +1827,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C120">
         <v>284</v>
@@ -1794,20 +1875,20 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -1855,7 +1936,7 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C135">
         <v>77</v>
@@ -1866,7 +1947,7 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C136">
         <v>97</v>
@@ -1877,7 +1958,7 @@
         <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C137">
         <v>286</v>
@@ -1921,6 +2002,137 @@
       </c>
       <c r="B142">
         <v>282</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>22</v>
+      </c>
+      <c r="B147" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>8151</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152">
+        <v>23222</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153">
+        <v>43170</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" t="s">
+        <v>57</v>
+      </c>
+      <c r="C154">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" t="s">
+        <v>58</v>
+      </c>
+      <c r="C155">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>59</v>
+      </c>
+      <c r="C156">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157">
+        <v>32206</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158">
+        <v>10139</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>16</v>
+      </c>
+      <c r="B161">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
